--- a/public/assets/berkas/absensi-produksi/master-produksi.xlsx
+++ b/public/assets/berkas/absensi-produksi/master-produksi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tammalocal\public\assets\berkas\absensi-produksi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tamma\tammacorp\public\assets\berkas\absensi-produksi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,112 +24,286 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t>Nama</t>
   </si>
   <si>
-    <t>Tririan Arianto</t>
-  </si>
-  <si>
-    <t>Nasikhatul Insaniyah</t>
-  </si>
-  <si>
-    <t>Mutiara Dicky Via Andini</t>
-  </si>
-  <si>
-    <t>Choirunnisa Rizky Nockita</t>
-  </si>
-  <si>
-    <t>Arief Rakhman Hidayat</t>
-  </si>
-  <si>
-    <t>Eko Setiawan</t>
-  </si>
-  <si>
-    <t>Amaliyah Nur Hidayah</t>
-  </si>
-  <si>
-    <t>Putri Intan</t>
-  </si>
-  <si>
-    <t>Shofa Syafitri</t>
-  </si>
-  <si>
-    <t>Ahmad Anton Prayogi</t>
-  </si>
-  <si>
-    <t>Devi Eka Zebriyanti</t>
-  </si>
-  <si>
-    <t>Novita Sari</t>
-  </si>
-  <si>
-    <t>Kirana Della Nesti P</t>
-  </si>
-  <si>
-    <t>Hardi Febri Yanto</t>
-  </si>
-  <si>
-    <t>Patrick Prasetyo</t>
-  </si>
-  <si>
-    <t>Karina Ayu Noviyanti</t>
-  </si>
-  <si>
-    <t>Septian Yalayudha Maharta</t>
-  </si>
-  <si>
-    <t>Niatul Rahmah</t>
-  </si>
-  <si>
-    <t>Achmad Yani</t>
-  </si>
-  <si>
-    <t>Widoyo Utomo</t>
-  </si>
-  <si>
-    <t>Erland Maulana</t>
-  </si>
-  <si>
-    <t>M. Irwansyah</t>
-  </si>
-  <si>
-    <t>Dani Prasetyo</t>
-  </si>
-  <si>
-    <t>Ari Prabowo</t>
-  </si>
-  <si>
-    <t>Muhammad Ramadhani F</t>
-  </si>
-  <si>
-    <t>Muhammad Ridho</t>
-  </si>
-  <si>
-    <t>Afifatul Ula</t>
-  </si>
-  <si>
-    <t>Mahbub Farhan Nurrozikin</t>
-  </si>
-  <si>
-    <t>Rohimatun</t>
-  </si>
-  <si>
-    <t>Muchamad Nur Resahadi</t>
-  </si>
-  <si>
-    <t>Imron</t>
-  </si>
-  <si>
     <t>ID Produksi</t>
+  </si>
+  <si>
+    <t>Siti</t>
+  </si>
+  <si>
+    <t>Zubaidah</t>
+  </si>
+  <si>
+    <t>Usmiati</t>
+  </si>
+  <si>
+    <t>Mafruhah</t>
+  </si>
+  <si>
+    <t>Mina</t>
+  </si>
+  <si>
+    <t>Risma</t>
+  </si>
+  <si>
+    <t>Farilah</t>
+  </si>
+  <si>
+    <t>Hasanah</t>
+  </si>
+  <si>
+    <t>Ifa</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Yati</t>
+  </si>
+  <si>
+    <t>Halimah C</t>
+  </si>
+  <si>
+    <t>Suprapti</t>
+  </si>
+  <si>
+    <t>Jumiah</t>
+  </si>
+  <si>
+    <t>Ani</t>
+  </si>
+  <si>
+    <t>Lia</t>
+  </si>
+  <si>
+    <t>Ima</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Ayube</t>
+  </si>
+  <si>
+    <t>Jumayah</t>
+  </si>
+  <si>
+    <t>Dila</t>
+  </si>
+  <si>
+    <t>Wati</t>
+  </si>
+  <si>
+    <t>Ida</t>
+  </si>
+  <si>
+    <t>Khoiriyah</t>
+  </si>
+  <si>
+    <t>Fida</t>
+  </si>
+  <si>
+    <t>Rokayah</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Rizky</t>
+  </si>
+  <si>
+    <t>Zainal</t>
+  </si>
+  <si>
+    <t>Eny</t>
+  </si>
+  <si>
+    <t>Asma</t>
+  </si>
+  <si>
+    <t>Nurul</t>
+  </si>
+  <si>
+    <t>Mina B</t>
+  </si>
+  <si>
+    <t>Fitria</t>
+  </si>
+  <si>
+    <t>Luluk</t>
+  </si>
+  <si>
+    <t>Nur C</t>
+  </si>
+  <si>
+    <t>Ria</t>
+  </si>
+  <si>
+    <t>Iis</t>
+  </si>
+  <si>
+    <t>Sohibe</t>
+  </si>
+  <si>
+    <t>Toriyeh</t>
+  </si>
+  <si>
+    <t>Nikmah</t>
+  </si>
+  <si>
+    <t>Safa</t>
+  </si>
+  <si>
+    <t>Wema</t>
+  </si>
+  <si>
+    <t>Mislimah</t>
+  </si>
+  <si>
+    <t>Maryam</t>
+  </si>
+  <si>
+    <t>Muna</t>
+  </si>
+  <si>
+    <t>Helmi</t>
+  </si>
+  <si>
+    <t>Sitilah</t>
+  </si>
+  <si>
+    <t>Zainab</t>
+  </si>
+  <si>
+    <t>Juariyah</t>
+  </si>
+  <si>
+    <t>Idayani</t>
+  </si>
+  <si>
+    <t>Farida</t>
+  </si>
+  <si>
+    <t>Fia</t>
+  </si>
+  <si>
+    <t>Nurul B</t>
+  </si>
+  <si>
+    <t>Um</t>
+  </si>
+  <si>
+    <t>Evi</t>
+  </si>
+  <si>
+    <t>Soleha</t>
+  </si>
+  <si>
+    <t>Fatimah</t>
+  </si>
+  <si>
+    <t>Afifa</t>
+  </si>
+  <si>
+    <t>Putri</t>
+  </si>
+  <si>
+    <t>Rumiatim</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Laili</t>
+  </si>
+  <si>
+    <t>Yani</t>
+  </si>
+  <si>
+    <t>Astimah</t>
+  </si>
+  <si>
+    <t>Bu Tina</t>
+  </si>
+  <si>
+    <t>Soleha C</t>
+  </si>
+  <si>
+    <t>Hamidah C</t>
+  </si>
+  <si>
+    <t>Sunar</t>
+  </si>
+  <si>
+    <t>Sufaatun</t>
+  </si>
+  <si>
+    <t>Bu Siti</t>
+  </si>
+  <si>
+    <t>Bu Fahmi</t>
+  </si>
+  <si>
+    <t>Bu Sholeh</t>
+  </si>
+  <si>
+    <t>Bu Yudi</t>
+  </si>
+  <si>
+    <t>Rohmah</t>
+  </si>
+  <si>
+    <t>Vila</t>
+  </si>
+  <si>
+    <t>Nur J</t>
+  </si>
+  <si>
+    <t>Isa</t>
+  </si>
+  <si>
+    <t>Riz</t>
+  </si>
+  <si>
+    <t>Holiyeh</t>
+  </si>
+  <si>
+    <t>Miatun</t>
+  </si>
+  <si>
+    <t>Hom</t>
+  </si>
+  <si>
+    <t>Ummi</t>
+  </si>
+  <si>
+    <t>Fatimah B</t>
+  </si>
+  <si>
+    <t>Amina</t>
+  </si>
+  <si>
+    <t>Nurhayati</t>
+  </si>
+  <si>
+    <t>Zahro</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Rosa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +316,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,9 +346,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,29 +630,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -477,7 +660,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -485,7 +668,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -493,7 +676,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -501,7 +684,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -509,7 +692,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -517,7 +700,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -525,7 +708,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -533,7 +716,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -541,7 +724,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -549,7 +732,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -557,7 +740,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -565,7 +748,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -573,7 +756,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -581,7 +764,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -589,7 +772,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -597,7 +780,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -605,7 +788,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -613,109 +796,598 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
         <v>19</v>
-      </c>
-      <c r="B20">
-        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
         <v>20</v>
-      </c>
-      <c r="B21">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
         <v>21</v>
-      </c>
-      <c r="B22">
-        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
         <v>22</v>
-      </c>
-      <c r="B23">
-        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
         <v>23</v>
-      </c>
-      <c r="B24">
-        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
         <v>24</v>
-      </c>
-      <c r="B25">
-        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
         <v>25</v>
-      </c>
-      <c r="B26">
-        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
         <v>26</v>
-      </c>
-      <c r="B27">
-        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
         <v>27</v>
-      </c>
-      <c r="B28">
-        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
         <v>28</v>
-      </c>
-      <c r="B29">
-        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
         <v>29</v>
-      </c>
-      <c r="B30">
-        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
         <v>30</v>
-      </c>
-      <c r="B31">
-        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
         <v>31</v>
       </c>
-      <c r="B32">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>34</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>